--- a/data/logindata.xlsx
+++ b/data/logindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seleniumwithjava\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62415CA-E331-48BB-822D-0A0317D346FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277147E5-5678-43ED-8B32-412E8959EE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
